--- a/data/trans_orig/P32D_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>20435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12984</v>
+        <v>12334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31493</v>
+        <v>30702</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06745555468273577</v>
+        <v>0.06745555468273579</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04286001341037766</v>
+        <v>0.04071561953608674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1039599865837151</v>
+        <v>0.1013484259118861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -762,19 +762,19 @@
         <v>6478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2607</v>
+        <v>2465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13223</v>
+        <v>13151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03722952299310398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01498494689220275</v>
+        <v>0.01416922840328426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07599671597983751</v>
+        <v>0.07557997764959218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>26912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17985</v>
+        <v>18000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39766</v>
+        <v>39250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05642817151700182</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0377106494507529</v>
+        <v>0.03774173813690292</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08337835659603568</v>
+        <v>0.08229699384472307</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>282498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271440</v>
+        <v>272231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289949</v>
+        <v>290599</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9325444453172641</v>
+        <v>0.9325444453172643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.896040013416285</v>
+        <v>0.8986515740881155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9571399865896225</v>
+        <v>0.9592843804639134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -833,19 +833,19 @@
         <v>167522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>160777</v>
+        <v>160849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>171393</v>
+        <v>171535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9627704770068961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9240032840201625</v>
+        <v>0.9244200223504078</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9850150531077974</v>
+        <v>0.9858307715967156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -854,19 +854,19 @@
         <v>450021</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>437167</v>
+        <v>437683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>458948</v>
+        <v>458933</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.943571828482998</v>
+        <v>0.9435718284829981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.916621643403964</v>
+        <v>0.9177030061552773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9622893505492469</v>
+        <v>0.9622582618630973</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>15329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9355</v>
+        <v>8896</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24238</v>
+        <v>24503</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06850064621270492</v>
+        <v>0.06850064621270494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04180414431722094</v>
+        <v>0.03975427737150548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.108312759467112</v>
+        <v>0.109494055395854</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -979,19 +979,19 @@
         <v>13377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7916</v>
+        <v>7725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22885</v>
+        <v>21915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09183420754142599</v>
+        <v>0.09183420754142597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05434502099315464</v>
+        <v>0.05303038335600408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1571042949286322</v>
+        <v>0.1504432137103521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -1000,19 +1000,19 @@
         <v>28706</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20274</v>
+        <v>20303</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41105</v>
+        <v>40983</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07770068117386481</v>
+        <v>0.07770068117386479</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05487720303142712</v>
+        <v>0.05495468380926545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1112595864878655</v>
+        <v>0.110930399468278</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>208452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199543</v>
+        <v>199278</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214426</v>
+        <v>214885</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.931499353787295</v>
+        <v>0.9314993537872953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8916872405328878</v>
+        <v>0.8905059446041459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.958195855682779</v>
+        <v>0.9602457226284944</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>193</v>
@@ -1050,19 +1050,19 @@
         <v>132290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122782</v>
+        <v>123752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>137751</v>
+        <v>137942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9081657924585739</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.842895705071368</v>
+        <v>0.849556786289648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9456549790068458</v>
+        <v>0.9469696166439958</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>401</v>
@@ -1071,19 +1071,19 @@
         <v>340742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>328343</v>
+        <v>328465</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>349174</v>
+        <v>349145</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9222993188261353</v>
+        <v>0.9222993188261351</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8887404135121347</v>
+        <v>0.889069600531722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9451227969685729</v>
+        <v>0.9450453161907345</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>31967</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21834</v>
+        <v>21076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46908</v>
+        <v>46008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1407813208827308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09615623207466398</v>
+        <v>0.09281572603137556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2065802423831235</v>
+        <v>0.2026164199700088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1196,19 +1196,19 @@
         <v>3547</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1269</v>
+        <v>1324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7346</v>
+        <v>7839</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07729728947033397</v>
+        <v>0.07729728947033396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02766140666977865</v>
+        <v>0.0288517549027353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1600836114718644</v>
+        <v>0.1708134254159663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1217,19 +1217,19 @@
         <v>35514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24172</v>
+        <v>25377</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49224</v>
+        <v>50400</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1301083837068748</v>
+        <v>0.1301083837068749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08855390675596125</v>
+        <v>0.09296956611014523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1803361962292895</v>
+        <v>0.1846413093657155</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>195102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>180161</v>
+        <v>181061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205235</v>
+        <v>205993</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8592186791172692</v>
+        <v>0.8592186791172691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7934197576168763</v>
+        <v>0.7973835800299911</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9038437679253359</v>
+        <v>0.9071842739686246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1267,19 +1267,19 @@
         <v>42343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38544</v>
+        <v>38051</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44621</v>
+        <v>44566</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.922702710529666</v>
+        <v>0.9227027105296659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8399163885281358</v>
+        <v>0.8291865745840333</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9723385933302214</v>
+        <v>0.9711482450972647</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>267</v>
@@ -1288,19 +1288,19 @@
         <v>237445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>223735</v>
+        <v>222559</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248787</v>
+        <v>247582</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8698916162931252</v>
+        <v>0.8698916162931251</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8196638037707106</v>
+        <v>0.8153586906342845</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9114460932440387</v>
+        <v>0.9070304338898546</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>41813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31108</v>
+        <v>31304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57580</v>
+        <v>56888</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07685175856690162</v>
+        <v>0.0768517585669016</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05717616150242109</v>
+        <v>0.05753707976921005</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1058319178483328</v>
+        <v>0.1045599545972105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -1413,19 +1413,19 @@
         <v>14840</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9299</v>
+        <v>9135</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25253</v>
+        <v>24973</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06440024148812168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04035418832860447</v>
+        <v>0.03964192169433999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.109585314837562</v>
+        <v>0.1083703548950026</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1434,19 +1434,19 @@
         <v>56653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43333</v>
+        <v>43547</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73198</v>
+        <v>73316</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07314707970963932</v>
+        <v>0.07314707970963934</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05594852733321079</v>
+        <v>0.05622450492999868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09450894814908713</v>
+        <v>0.09466147717367694</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>502259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486492</v>
+        <v>487184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512964</v>
+        <v>512768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9231482414330984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8941680821516675</v>
+        <v>0.8954400454027895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9428238384975789</v>
+        <v>0.9424629202307901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -1484,19 +1484,19 @@
         <v>215599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>205186</v>
+        <v>205466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221140</v>
+        <v>221304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9355997585118783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8904146851624382</v>
+        <v>0.8916296451049975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9596458116713956</v>
+        <v>0.96035807830566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>762</v>
@@ -1505,19 +1505,19 @@
         <v>717859</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>701314</v>
+        <v>701196</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>731179</v>
+        <v>730965</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9268529202903607</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9054910518509129</v>
+        <v>0.9053385228263233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9440514726667892</v>
+        <v>0.9437754950700014</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>42071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29998</v>
+        <v>29457</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61934</v>
+        <v>58882</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1662026825929076</v>
+        <v>0.1662026825929077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1185089654646732</v>
+        <v>0.1163719338182278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2446719657640314</v>
+        <v>0.2326131306489181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1630,19 +1630,19 @@
         <v>8448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4102</v>
+        <v>4826</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13974</v>
+        <v>15307</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05577503913198766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02708126519508553</v>
+        <v>0.03186219160578282</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09226549705374244</v>
+        <v>0.1010664305506964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1651,19 +1651,19 @@
         <v>50519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37086</v>
+        <v>36701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70042</v>
+        <v>68989</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1248643426822085</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09166236175135903</v>
+        <v>0.09071120836892133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1731197788570183</v>
+        <v>0.1705171862204465</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>211061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191198</v>
+        <v>194250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>223134</v>
+        <v>223675</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8337973174070924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7553280342359679</v>
+        <v>0.7673868693510815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8814910345353267</v>
+        <v>0.8836280661817717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>200</v>
@@ -1701,19 +1701,19 @@
         <v>143009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137483</v>
+        <v>136150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>147355</v>
+        <v>146631</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9442249608680123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9077345029462576</v>
+        <v>0.8989335694493037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9729187348049146</v>
+        <v>0.9681378083942174</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>399</v>
@@ -1722,19 +1722,19 @@
         <v>354070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>334547</v>
+        <v>335600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>367503</v>
+        <v>367888</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8751356573177913</v>
+        <v>0.8751356573177914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8268802211429824</v>
+        <v>0.8294828137795537</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9083376382486409</v>
+        <v>0.9092887916310787</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6084</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1592</v>
+        <v>1632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16119</v>
+        <v>17163</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07179029207012737</v>
+        <v>0.07179029207012734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0187807519056911</v>
+        <v>0.01925919251773435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1902112132161334</v>
+        <v>0.2025310253176763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1847,19 +1847,19 @@
         <v>13550</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6651</v>
+        <v>6796</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24795</v>
+        <v>23751</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1071349074029884</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05258423940397028</v>
+        <v>0.05373552165921804</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1960446182996259</v>
+        <v>0.1877903804455798</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1868,19 +1868,19 @@
         <v>19634</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11324</v>
+        <v>10377</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34366</v>
+        <v>31944</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09295442310092188</v>
+        <v>0.09295442310092189</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05361163782428283</v>
+        <v>0.04912981814949276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1627007136323684</v>
+        <v>0.1512338420709116</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>78659</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68624</v>
+        <v>67580</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83151</v>
+        <v>83111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9282097079298726</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8097887867838666</v>
+        <v>0.7974689746823249</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9812192480943088</v>
+        <v>0.9807408074822658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>135</v>
@@ -1918,19 +1918,19 @@
         <v>112927</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101682</v>
+        <v>102726</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119826</v>
+        <v>119681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8928650925970116</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8039553817003738</v>
+        <v>0.8122096195544203</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9474157605960296</v>
+        <v>0.9462644783407821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -1939,19 +1939,19 @@
         <v>191586</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>176854</v>
+        <v>179276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199896</v>
+        <v>200843</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9070455768990779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8372992863676317</v>
+        <v>0.8487661579290883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9463883621757172</v>
+        <v>0.9508701818505071</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>157699</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131643</v>
+        <v>132444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>187974</v>
+        <v>186104</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0964086758698167</v>
+        <v>0.09640867586981673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08047981083285299</v>
+        <v>0.08096948681829075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.114917440995056</v>
+        <v>0.113774265730656</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -2064,19 +2064,19 @@
         <v>60240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45597</v>
+        <v>45379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77369</v>
+        <v>76176</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06893034555528831</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05217415481625186</v>
+        <v>0.05192486384622448</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08852932547139074</v>
+        <v>0.08716529675271141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -2085,19 +2085,19 @@
         <v>217939</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191543</v>
+        <v>190100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>249876</v>
+        <v>254284</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08683999439916248</v>
+        <v>0.08683999439916247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07632226011272421</v>
+        <v>0.07574734370373033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09956540955383522</v>
+        <v>0.1013220059668829</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>1478032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1447757</v>
+        <v>1449627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1504088</v>
+        <v>1503287</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9035913241301834</v>
+        <v>0.9035913241301833</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8850825590049439</v>
+        <v>0.8862257342693438</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.919520189167147</v>
+        <v>0.9190305131817089</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1108</v>
@@ -2135,19 +2135,19 @@
         <v>813691</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>796562</v>
+        <v>797755</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>828334</v>
+        <v>828552</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9310696544447117</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9114706745286094</v>
+        <v>0.9128347032472892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9478258451837482</v>
+        <v>0.9480751361537756</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2517</v>
@@ -2156,19 +2156,19 @@
         <v>2291723</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2259786</v>
+        <v>2255378</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2318119</v>
+        <v>2319562</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9131600056008373</v>
+        <v>0.9131600056008375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9004345904461648</v>
+        <v>0.8986779940331169</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9236777398872758</v>
+        <v>0.9242526562962695</v>
       </c>
     </row>
     <row r="24">
